--- a/tabelas_template/DISPLAY LG.xlsx
+++ b/tabelas_template/DISPLAY LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CA2FB7-B963-4471-9F40-DCA51903E990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51D62F-9FA1-468E-BFDD-C444F27F2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>DISPLAY LG</t>
   </si>
@@ -50,9 +50,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 45,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -70,9 +67,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -90,9 +84,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -110,9 +101,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -130,9 +118,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 40,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -150,9 +135,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 40,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -170,9 +152,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -190,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -225,9 +201,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -245,9 +218,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -265,9 +235,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -285,9 +252,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -325,9 +289,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -345,9 +306,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -365,9 +323,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -432,9 +387,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -459,9 +411,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -479,9 +428,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -499,9 +445,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -526,9 +469,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -546,9 +486,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -566,9 +503,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -593,9 +527,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -613,9 +544,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -633,9 +561,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -661,9 +586,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -688,9 +610,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -708,9 +627,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -728,9 +644,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -755,9 +668,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -775,9 +685,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -795,9 +702,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -822,9 +726,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -842,9 +743,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -862,9 +760,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -889,9 +784,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -909,9 +801,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -929,9 +818,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -957,9 +843,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -984,9 +867,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1004,9 +884,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1029,15 +906,15 @@
       </rPr>
       <t xml:space="preserve"> (6 MESES DE GARAN)</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 110,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1132,21 +1009,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1156,6 +1027,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,7 +1320,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1450,371 +1330,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B10" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="B11" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B12" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="B13" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="15" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B15" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="B16" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B17" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="B20" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B21" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="B22" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B23" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="B24" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B25" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="B26" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B27" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="B28" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B29" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="B30" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B31" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="B32" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B33" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="B34" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B35" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="B36" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B37" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="B38" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B39" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="B40" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B41" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="B42" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B43" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="B44" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B45" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
+      <c r="B46" s="8">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
